--- a/使用64位数字进行圣遗物压缩存储的方案/总结.xlsx
+++ b/使用64位数字进行圣遗物压缩存储的方案/总结.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\VCode\Desktop\原神\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\VCode\Desktop\原神\使用64位数字进行圣遗物压缩存储的方案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3FD118-5625-46D4-9244-F1DB6E8FC3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE69D274-F776-4BE8-9F62-58131A2A9980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{2C7BC451-0403-4621-8997-6CC93A21CEB4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>最高位</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,14 +85,6 @@
   </si>
   <si>
     <t>部位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -193,121 +185,119 @@
     <t>18. 火元素伤害加成</t>
   </si>
   <si>
-    <t>1. 行者之心</t>
-  </si>
-  <si>
-    <t>2. 勇士之心</t>
-  </si>
-  <si>
-    <t>3. 守护之心</t>
-  </si>
-  <si>
-    <t>4. 奇迹</t>
-  </si>
-  <si>
-    <t>5. 战狂</t>
-  </si>
-  <si>
-    <t>6. 武人</t>
-  </si>
-  <si>
     <t>7. 教官</t>
   </si>
   <si>
-    <t>8. 赌徒</t>
-  </si>
-  <si>
-    <t>9. 流放者</t>
-  </si>
-  <si>
-    <t>10. 冒险家</t>
-  </si>
-  <si>
-    <t>11. 幸运儿</t>
-  </si>
-  <si>
-    <t>12. 学士</t>
-  </si>
-  <si>
-    <t>13. 游医</t>
-  </si>
-  <si>
-    <t>14. 冰风迷途的勇士</t>
-  </si>
-  <si>
-    <t>15. 平息鸣雷的尊者</t>
-  </si>
-  <si>
-    <t>16. 渡过烈火的贤人</t>
-  </si>
-  <si>
-    <t>17. 被怜爱的少女</t>
-  </si>
-  <si>
-    <t>18. 角斗士的终幕礼</t>
-  </si>
-  <si>
-    <t>19. 翠绿之影</t>
-  </si>
-  <si>
-    <t>20. 流浪大地的乐团</t>
-  </si>
-  <si>
-    <t>21. 冰之川与雪之砂</t>
-  </si>
-  <si>
-    <t>22. 如雷的盛怒</t>
-  </si>
-  <si>
-    <t>23. 炽烈的炎之魔女</t>
-  </si>
-  <si>
-    <t>24. 昔日宗室之仪</t>
-  </si>
-  <si>
-    <t>25. 染血的骑士道</t>
-  </si>
-  <si>
-    <t>26. 祭火之人</t>
-  </si>
-  <si>
-    <t>27. 祭水之人</t>
-  </si>
-  <si>
-    <t>28. 祭雷之人</t>
-  </si>
-  <si>
-    <t>29. 祭风之人</t>
-  </si>
-  <si>
-    <t>30. 祭冰之人</t>
-  </si>
-  <si>
-    <t>31. 悠古的磐岩</t>
-  </si>
-  <si>
-    <t>32. 逆飞的流星</t>
-  </si>
-  <si>
-    <t>33. 沉沦之心</t>
-  </si>
-  <si>
-    <t>34. 千岩牢固</t>
-  </si>
-  <si>
-    <t>35. 苍白之火</t>
-  </si>
-  <si>
-    <t>36. 追忆之注连</t>
-  </si>
-  <si>
-    <t>37. 绝缘之旗印</t>
-  </si>
-  <si>
-    <t>38. 华馆梦醒形骸记</t>
-  </si>
-  <si>
-    <t>39. 海染砗磲</t>
+    <t>1. 冒险家</t>
+  </si>
+  <si>
+    <t>2. 幸运儿</t>
+  </si>
+  <si>
+    <t>3. 游医</t>
+  </si>
+  <si>
+    <t>4. 行者之心</t>
+  </si>
+  <si>
+    <t>5. 奇迹</t>
+  </si>
+  <si>
+    <t>6. 战狂</t>
+  </si>
+  <si>
+    <t>8. 流放者</t>
+  </si>
+  <si>
+    <t>9. 守护之心</t>
+  </si>
+  <si>
+    <t>10. 勇士之心</t>
+  </si>
+  <si>
+    <t>11. 武人</t>
+  </si>
+  <si>
+    <t>12. 赌徒</t>
+  </si>
+  <si>
+    <t>13. 学士</t>
+  </si>
+  <si>
+    <t>14. 祭火之人</t>
+  </si>
+  <si>
+    <t>15. 祭水之人</t>
+  </si>
+  <si>
+    <t>16. 祭雷之人</t>
+  </si>
+  <si>
+    <t>17. 祭冰之人</t>
+  </si>
+  <si>
+    <t>18. 冰风迷途的勇士</t>
+  </si>
+  <si>
+    <t>19. 平息鸣雷的尊者</t>
+  </si>
+  <si>
+    <t>20. 渡过烈火的贤人</t>
+  </si>
+  <si>
+    <t>21. 被怜爱的少女</t>
+  </si>
+  <si>
+    <t>22. 角斗士的终幕礼</t>
+  </si>
+  <si>
+    <t>23. 翠绿之影</t>
+  </si>
+  <si>
+    <t>24. 流浪大地的乐团</t>
+  </si>
+  <si>
+    <t>25. 如雷的盛怒</t>
+  </si>
+  <si>
+    <t>26. 炽烈的炎之魔女</t>
+  </si>
+  <si>
+    <t>27. 昔日宗室之仪</t>
+  </si>
+  <si>
+    <t>28. 染血的骑士道</t>
+  </si>
+  <si>
+    <t>29. 悠古的磐岩</t>
+  </si>
+  <si>
+    <t>30. 逆飞的流星</t>
+  </si>
+  <si>
+    <t>31. 沉沦之心</t>
+  </si>
+  <si>
+    <t>32. 千岩牢固</t>
+  </si>
+  <si>
+    <t>33. 苍白之火</t>
+  </si>
+  <si>
+    <t>34. 追忆之注连</t>
+  </si>
+  <si>
+    <t>35. 绝缘之旗印</t>
+  </si>
+  <si>
+    <t>36. 华馆梦醒形骸记</t>
+  </si>
+  <si>
+    <t>37. 海染砗磲</t>
+  </si>
+  <si>
+    <t>星级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -353,7 +343,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,12 +394,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -429,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -454,16 +438,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -786,7 +767,7 @@
   <dimension ref="A1:BL24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -796,28 +777,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
       <c r="O1" t="s">
         <v>11</v>
       </c>
@@ -850,34 +829,34 @@
       </c>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0</v>
-      </c>
-      <c r="H2" s="9">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
         <v>0</v>
       </c>
       <c r="K2" s="5">
@@ -1044,196 +1023,196 @@
       </c>
     </row>
     <row r="3" spans="1:64" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>63</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>62</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>61</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>60</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>59</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>58</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>57</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>56</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <v>55</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <v>54</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <v>53</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="11">
         <v>52</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <v>51</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="11">
         <v>50</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="11">
         <v>49</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="11">
         <v>48</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <v>47</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="10">
         <v>46</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="10">
         <v>45</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="10">
         <v>44</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="10">
         <v>43</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="10">
         <v>42</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="10">
         <v>41</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="10">
         <v>40</v>
       </c>
-      <c r="Y3" s="12">
+      <c r="Y3" s="11">
         <v>39</v>
       </c>
-      <c r="Z3" s="12">
+      <c r="Z3" s="11">
         <v>38</v>
       </c>
-      <c r="AA3" s="12">
+      <c r="AA3" s="11">
         <v>37</v>
       </c>
-      <c r="AB3" s="12">
+      <c r="AB3" s="11">
         <v>36</v>
       </c>
-      <c r="AC3" s="12">
+      <c r="AC3" s="11">
         <v>35</v>
       </c>
-      <c r="AD3" s="12">
+      <c r="AD3" s="11">
         <v>34</v>
       </c>
-      <c r="AE3" s="12">
+      <c r="AE3" s="11">
         <v>33</v>
       </c>
-      <c r="AF3" s="12">
+      <c r="AF3" s="11">
         <v>32</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AG3" s="10">
         <v>31</v>
       </c>
-      <c r="AH3" s="11">
+      <c r="AH3" s="10">
         <v>30</v>
       </c>
-      <c r="AI3" s="11">
+      <c r="AI3" s="10">
         <v>29</v>
       </c>
-      <c r="AJ3" s="11">
+      <c r="AJ3" s="10">
         <v>28</v>
       </c>
-      <c r="AK3" s="11">
+      <c r="AK3" s="10">
         <v>27</v>
       </c>
-      <c r="AL3" s="11">
+      <c r="AL3" s="10">
         <v>26</v>
       </c>
-      <c r="AM3" s="11">
+      <c r="AM3" s="10">
         <v>25</v>
       </c>
-      <c r="AN3" s="11">
+      <c r="AN3" s="10">
         <v>24</v>
       </c>
-      <c r="AO3" s="12">
+      <c r="AO3" s="11">
         <v>23</v>
       </c>
-      <c r="AP3" s="12">
+      <c r="AP3" s="11">
         <v>22</v>
       </c>
-      <c r="AQ3" s="12">
+      <c r="AQ3" s="11">
         <v>21</v>
       </c>
-      <c r="AR3" s="12">
+      <c r="AR3" s="11">
         <v>20</v>
       </c>
-      <c r="AS3" s="12">
+      <c r="AS3" s="11">
         <v>19</v>
       </c>
-      <c r="AT3" s="12">
+      <c r="AT3" s="11">
         <v>18</v>
       </c>
-      <c r="AU3" s="12">
+      <c r="AU3" s="11">
         <v>17</v>
       </c>
-      <c r="AV3" s="12">
+      <c r="AV3" s="11">
         <v>16</v>
       </c>
-      <c r="AW3" s="11">
+      <c r="AW3" s="10">
         <v>15</v>
       </c>
-      <c r="AX3" s="11">
+      <c r="AX3" s="10">
         <v>14</v>
       </c>
-      <c r="AY3" s="11">
+      <c r="AY3" s="10">
         <v>13</v>
       </c>
-      <c r="AZ3" s="11">
+      <c r="AZ3" s="10">
         <v>12</v>
       </c>
-      <c r="BA3" s="11">
+      <c r="BA3" s="10">
         <v>11</v>
       </c>
-      <c r="BB3" s="11">
+      <c r="BB3" s="10">
         <v>10</v>
       </c>
-      <c r="BC3" s="11">
+      <c r="BC3" s="10">
         <v>9</v>
       </c>
-      <c r="BD3" s="11">
+      <c r="BD3" s="10">
         <v>8</v>
       </c>
-      <c r="BE3" s="12">
+      <c r="BE3" s="11">
         <v>7</v>
       </c>
-      <c r="BF3" s="12">
+      <c r="BF3" s="11">
         <v>6</v>
       </c>
-      <c r="BG3" s="12">
+      <c r="BG3" s="11">
         <v>5</v>
       </c>
-      <c r="BH3" s="12">
+      <c r="BH3" s="11">
         <v>4</v>
       </c>
-      <c r="BI3" s="12">
+      <c r="BI3" s="11">
         <v>3</v>
       </c>
-      <c r="BJ3" s="12">
+      <c r="BJ3" s="11">
         <v>2</v>
       </c>
-      <c r="BK3" s="12">
+      <c r="BK3" s="11">
         <v>1</v>
       </c>
-      <c r="BL3" s="12">
+      <c r="BL3" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1241,238 +1220,232 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
       <c r="BK4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="A5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="T14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="T22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
